--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A906A6F-F7E7-4722-BB42-DB1D5975F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C3338-F6B2-4BB6-A1F9-46ACA047EA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2190" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="2190" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C3338-F6B2-4BB6-A1F9-46ACA047EA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914CD81-F4DC-4DD2-9554-C291FE2FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2190" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1440" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>print"Welcome to Overview of Trees"</t>
+  </si>
+  <si>
+    <t>Welcome to Graph</t>
+  </si>
+  <si>
+    <t>print"Welcome to Graph"</t>
+  </si>
+  <si>
+    <t>Welcome to Queue</t>
+  </si>
+  <si>
+    <t>print"Welcome to Queue"</t>
   </si>
 </sst>
 </file>
@@ -903,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -987,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1030,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E914CD81-F4DC-4DD2-9554-C291FE2FF73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD05950-4515-442A-AAB8-1FF682E1CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1440" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>password</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>print"Welcome to Queue"</t>
+  </si>
+  <si>
+    <t>print"array1 = array('i', [10,20,30,40,50])"</t>
+  </si>
+  <si>
+    <t>print"'array1.insert(1,60),print x"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +216,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -553,10 +564,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -999,15 +1013,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1064,18 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD05950-4515-442A-AAB8-1FF682E1CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495593CD-1D46-4AF2-B107-DBA05C865897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,10 +567,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
